--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFFA4B2-C94B-40B6-9488-BCE49438FFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A22E8-6E6E-4661-9670-13288231994F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="9620" yWindow="50" windowWidth="9530" windowHeight="10100" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="56" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="21"/>
@@ -2061,7 +2061,7 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="12">
         <v>13</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A22E8-6E6E-4661-9670-13288231994F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6924A1-64BC-4DE0-995D-AE19DB6E3F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="50" windowWidth="9530" windowHeight="10100" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="56" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="77" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="21"/>
@@ -2495,7 +2495,7 @@
       <c r="B60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="12">
         <v>51</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="B61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="12">
         <v>52</v>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="B62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="12">
         <v>53</v>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       <c r="B139" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="12">
         <v>126</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6924A1-64BC-4DE0-995D-AE19DB6E3F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BBA9A6-6932-4396-9FBD-62D3C5B367B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1508,19 +1508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,6 +1575,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1892,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="77" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="21"/>
@@ -1929,7 +1930,7 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1940,7 +1941,7 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1951,7 +1952,7 @@
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1962,7 +1963,7 @@
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1973,7 +1974,7 @@
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1984,7 +1985,7 @@
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>6</v>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>7</v>
       </c>
     </row>
@@ -2006,7 +2007,7 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>8</v>
       </c>
     </row>
@@ -2017,7 +2018,7 @@
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2028,7 +2029,7 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>10</v>
       </c>
     </row>
@@ -2039,7 +2040,7 @@
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2050,7 +2051,7 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>12</v>
       </c>
     </row>
@@ -2061,7 +2062,7 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>13</v>
       </c>
     </row>
@@ -2470,7 +2471,7 @@
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="9">
@@ -3347,7 +3348,7 @@
       <c r="B140" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="12">
         <v>127</v>
       </c>
     </row>
@@ -3358,7 +3359,7 @@
       <c r="B141" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="12">
         <v>128</v>
       </c>
     </row>
@@ -3369,7 +3370,7 @@
       <c r="B142" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="12">
         <v>129</v>
       </c>
     </row>
@@ -3380,7 +3381,7 @@
       <c r="B143" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="12">
         <v>130</v>
       </c>
     </row>
